--- a/Sistema de Custeio.xlsx
+++ b/Sistema de Custeio.xlsx
@@ -104,7 +104,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -160,9 +160,9 @@
       <alignment vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +476,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -530,12 +530,12 @@
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="7">
-        <f>SUM(D5:D16)</f>
-        <v>42040</v>
+        <f>SUM(D5:D17)</f>
+        <v>50440</v>
       </c>
       <c r="E4" s="7">
-        <f>SUM(E5:E16)</f>
-        <v>42040</v>
+        <f>SUM(E5:E17)</f>
+        <v>50440</v>
       </c>
     </row>
     <row r="5" spans="1:5">
